--- a/docs/output/table 2_logistic_regression.xlsx
+++ b/docs/output/table 2_logistic_regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\cvd-and-teeth\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F23DF1-F007-4D2F-BA13-53207E3AC167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D432CBFC-4CCC-491F-9828-74ED44D2A18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1125" windowWidth="25980" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12480" yWindow="-15405" windowWidth="25980" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LogisticRegressionModel" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>Education</t>
   </si>
   <si>
-    <t>High School</t>
-  </si>
-  <si>
     <t>Less than High School</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Table 2: Key statistics and adjusted odds ratios (with 95% confidence intervals) acording to cardiovascular disease for the variables in the final logistic regression analysis behavioral risk factor surveillance system, 2018.</t>
+  </si>
+  <si>
+    <t>High School or Some College</t>
   </si>
 </sst>
 </file>
@@ -916,17 +916,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971D7FF8-A6DB-49F3-B245-B83B294A841E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93144C49-E368-4172-8028-F032D7D17B84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +950,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="609600" y="190500"/>
-          <a:ext cx="7305675" cy="10153650"/>
+          <a:ext cx="7381875" cy="10153650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1278,7 +1278,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="4" customWidth="1"/>
     <col min="4" max="7" width="10.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -1289,7 +1289,7 @@
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>3</v>
@@ -1330,7 +1330,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -1344,7 +1344,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>15</v>
@@ -1372,7 +1372,7 @@
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="19">
         <v>0.61945519411584604</v>
@@ -1400,7 +1400,7 @@
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="19">
         <v>0.49006072444107901</v>
@@ -1428,7 +1428,7 @@
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="19">
         <v>0.20117916155113499</v>
@@ -1534,7 +1534,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>15</v>
@@ -1804,7 +1804,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="16" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>15</v>
@@ -1832,7 +1832,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="19">
         <v>0.15413040455551499</v>
@@ -1860,7 +1860,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="19">
         <v>-0.148383040535601</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>15</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="5">
         <v>0.453868443518267</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="5">
         <v>0.30197790112474099</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="5">
         <v>0.13680226639137899</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="5">
         <v>0.108458961593924</v>
@@ -2030,7 +2030,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -2044,7 +2044,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>15</v>
@@ -2072,7 +2072,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="19">
         <v>0.215514877916931</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>15</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="5">
         <v>-0.70883124238654605</v>
@@ -2164,7 +2164,7 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
@@ -2178,7 +2178,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>15</v>
@@ -2206,7 +2206,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="19">
         <v>0.35071125803997699</v>
@@ -2234,7 +2234,7 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="19">
         <v>0.51366915634216803</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>15</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="5">
         <v>0.22482850309312999</v>
@@ -2326,7 +2326,7 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -2340,7 +2340,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>15</v>
@@ -2368,7 +2368,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="19">
         <v>0.25641395412685702</v>
@@ -2396,7 +2396,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="19">
         <v>8.4290236790254103E-2</v>
@@ -2424,7 +2424,7 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="19">
         <v>0.20786838852773201</v>
@@ -2465,7 +2465,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
